--- a/list/deploy.xlsx
+++ b/list/deploy.xlsx
@@ -1775,9 +1775,9 @@
   <numFmts count="5">
     <numFmt numFmtId="176" formatCode="m&quot;／&quot;d&quot;／&quot;yyyy"/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="32">
     <font>
@@ -1853,17 +1853,17 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
@@ -1873,16 +1873,23 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1895,23 +1902,35 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="微软雅黑"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="15"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -1927,7 +1946,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1941,29 +1960,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="Calibri"/>
@@ -1971,18 +1967,19 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1993,9 +1990,12 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="微软雅黑"/>
-      <charset val="1"/>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="36">
@@ -2031,7 +2031,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2043,37 +2067,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2085,49 +2103,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2139,7 +2139,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2157,31 +2163,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2193,19 +2205,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2394,6 +2394,36 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
@@ -2419,15 +2449,6 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -2437,32 +2458,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2480,140 +2480,140 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="13" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="13" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="11" borderId="15" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="7" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="13" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="12" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="15" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="12" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="28" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="15" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="12" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="12" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="12" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="13" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="13" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
@@ -3113,12 +3113,12 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:I43"/>
+  <dimension ref="A1:I45"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A12" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="E22" sqref="E22"/>
+      <selection pane="bottomLeft" activeCell="E35" sqref="E35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -4151,6 +4151,11 @@
         <v>14</v>
       </c>
       <c r="I43" s="30"/>
+    </row>
+    <row r="45" spans="1:1">
+      <c r="A45">
+        <v>42</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -4191,7 +4196,7 @@
     <hyperlink ref="D28:D43" r:id="rId3" display="deploy.md"/>
     <hyperlink ref="D18:D27" r:id="rId4" display="bmc-load-iso.md"/>
   </hyperlinks>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511111111111111" footer="0.511111111111111"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.510416666666667" footer="0.510416666666667"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
   <headerFooter/>
 </worksheet>

--- a/list/deploy.xlsx
+++ b/list/deploy.xlsx
@@ -1774,12 +1774,12 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
     <numFmt numFmtId="176" formatCode="m&quot;／&quot;d&quot;／&quot;yyyy"/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="32">
+  <fonts count="33">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
@@ -1835,6 +1835,22 @@
       <charset val="1"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="10"/>
       <color rgb="FF333333"/>
       <name val="Noto Sans CJK SC Regular"/>
@@ -1853,29 +1869,20 @@
       <charset val="134"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="10"/>
       <name val="Arial"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1888,18 +1895,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
+      <sz val="10"/>
+      <name val="微软雅黑"/>
+      <charset val="1"/>
     </font>
     <font>
       <b/>
@@ -1910,27 +1908,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="微软雅黑"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="13"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -1946,7 +1925,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1961,25 +1948,47 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1990,11 +1999,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -2025,7 +2033,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2037,7 +2051,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2049,7 +2099,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2061,7 +2129,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2073,139 +2201,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2378,17 +2386,41 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
       </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
       </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
       </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2408,45 +2440,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -2454,6 +2447,21 @@
       </top>
       <bottom style="double">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2480,142 +2488,142 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="13" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="13" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="11" borderId="15" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="10" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="7" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="15" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="14" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="10" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="14" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="11" borderId="14" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="20" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="13" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="14" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="13" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="13" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="14" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="30" fillId="23" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="14" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2658,7 +2666,10 @@
     <xf numFmtId="0" fontId="8" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="5" xfId="43" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="5" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="5" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2673,26 +2684,26 @@
     <xf numFmtId="0" fontId="5" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="11" fillId="4" borderId="5" xfId="35" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="176" fontId="13" fillId="4" borderId="5" xfId="35" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3116,7 +3127,7 @@
   <dimension ref="A1:I45"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A12" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
       <selection/>
       <selection pane="bottomLeft" activeCell="E35" sqref="E35"/>
     </sheetView>
@@ -3160,7 +3171,7 @@
       <c r="H1" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="26" t="s">
+      <c r="I1" s="27" t="s">
         <v>8</v>
       </c>
     </row>
@@ -3177,19 +3188,19 @@
       <c r="D2" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="E2" s="19" t="s">
+      <c r="E2" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="F2" s="20" t="s">
-        <v>14</v>
-      </c>
-      <c r="G2" s="21" t="s">
+      <c r="F2" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="G2" s="22" t="s">
         <v>15</v>
       </c>
-      <c r="H2" s="20" t="s">
-        <v>14</v>
-      </c>
-      <c r="I2" s="27"/>
+      <c r="H2" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="I2" s="28"/>
     </row>
     <row r="3" ht="14" customHeight="1" spans="1:9">
       <c r="A3" s="6"/>
@@ -3200,19 +3211,19 @@
         <v>11</v>
       </c>
       <c r="D3" s="9"/>
-      <c r="E3" s="22" t="s">
+      <c r="E3" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="23" t="s">
-        <v>14</v>
-      </c>
-      <c r="G3" s="21" t="s">
+      <c r="F3" s="24" t="s">
+        <v>14</v>
+      </c>
+      <c r="G3" s="22" t="s">
         <v>15</v>
       </c>
-      <c r="H3" s="20" t="s">
-        <v>14</v>
-      </c>
-      <c r="I3" s="28"/>
+      <c r="H3" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="I3" s="29"/>
     </row>
     <row r="4" ht="14" customHeight="1" spans="1:9">
       <c r="A4" s="6"/>
@@ -3223,19 +3234,19 @@
         <v>11</v>
       </c>
       <c r="D4" s="9"/>
-      <c r="E4" s="22" t="s">
+      <c r="E4" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="F4" s="23" t="s">
-        <v>14</v>
-      </c>
-      <c r="G4" s="21" t="s">
+      <c r="F4" s="24" t="s">
+        <v>14</v>
+      </c>
+      <c r="G4" s="22" t="s">
         <v>15</v>
       </c>
-      <c r="H4" s="20" t="s">
-        <v>14</v>
-      </c>
-      <c r="I4" s="28"/>
+      <c r="H4" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="I4" s="29"/>
     </row>
     <row r="5" ht="14" customHeight="1" spans="1:9">
       <c r="A5" s="6"/>
@@ -3246,19 +3257,19 @@
         <v>11</v>
       </c>
       <c r="D5" s="9"/>
-      <c r="E5" s="22" t="s">
+      <c r="E5" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="F5" s="23" t="s">
-        <v>14</v>
-      </c>
-      <c r="G5" s="21" t="s">
+      <c r="F5" s="24" t="s">
+        <v>14</v>
+      </c>
+      <c r="G5" s="22" t="s">
         <v>15</v>
       </c>
-      <c r="H5" s="20" t="s">
-        <v>14</v>
-      </c>
-      <c r="I5" s="28"/>
+      <c r="H5" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="I5" s="29"/>
     </row>
     <row r="6" s="3" customFormat="1" ht="14" customHeight="1" spans="1:9">
       <c r="A6" s="6" t="s">
@@ -3271,19 +3282,19 @@
         <v>11</v>
       </c>
       <c r="D6" s="9"/>
-      <c r="E6" s="22" t="s">
+      <c r="E6" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="F6" s="23" t="s">
-        <v>14</v>
-      </c>
-      <c r="G6" s="21" t="s">
+      <c r="F6" s="24" t="s">
+        <v>14</v>
+      </c>
+      <c r="G6" s="22" t="s">
         <v>15</v>
       </c>
-      <c r="H6" s="20" t="s">
-        <v>14</v>
-      </c>
-      <c r="I6" s="29"/>
+      <c r="H6" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="I6" s="30"/>
     </row>
     <row r="7" ht="14" customHeight="1" spans="1:9">
       <c r="A7" s="6"/>
@@ -3294,19 +3305,19 @@
         <v>11</v>
       </c>
       <c r="D7" s="9"/>
-      <c r="E7" s="22" t="s">
+      <c r="E7" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="F7" s="23" t="s">
-        <v>14</v>
-      </c>
-      <c r="G7" s="21" t="s">
+      <c r="F7" s="24" t="s">
+        <v>14</v>
+      </c>
+      <c r="G7" s="22" t="s">
         <v>15</v>
       </c>
-      <c r="H7" s="20" t="s">
-        <v>14</v>
-      </c>
-      <c r="I7" s="29"/>
+      <c r="H7" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="I7" s="30"/>
     </row>
     <row r="8" ht="14" customHeight="1" spans="1:9">
       <c r="A8" s="6"/>
@@ -3317,19 +3328,19 @@
         <v>11</v>
       </c>
       <c r="D8" s="9"/>
-      <c r="E8" s="22" t="s">
+      <c r="E8" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="F8" s="23" t="s">
-        <v>14</v>
-      </c>
-      <c r="G8" s="21" t="s">
+      <c r="F8" s="24" t="s">
+        <v>14</v>
+      </c>
+      <c r="G8" s="22" t="s">
         <v>15</v>
       </c>
-      <c r="H8" s="20" t="s">
-        <v>14</v>
-      </c>
-      <c r="I8" s="29"/>
+      <c r="H8" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="I8" s="30"/>
     </row>
     <row r="9" ht="14" customHeight="1" spans="1:9">
       <c r="A9" s="12" t="s">
@@ -3342,19 +3353,19 @@
         <v>11</v>
       </c>
       <c r="D9" s="9"/>
-      <c r="E9" s="22" t="s">
+      <c r="E9" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="F9" s="23" t="s">
-        <v>14</v>
-      </c>
-      <c r="G9" s="21" t="s">
+      <c r="F9" s="24" t="s">
+        <v>14</v>
+      </c>
+      <c r="G9" s="22" t="s">
         <v>15</v>
       </c>
-      <c r="H9" s="20" t="s">
-        <v>14</v>
-      </c>
-      <c r="I9" s="29"/>
+      <c r="H9" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="I9" s="30"/>
     </row>
     <row r="10" ht="14" customHeight="1" spans="1:9">
       <c r="A10" s="12"/>
@@ -3365,19 +3376,19 @@
         <v>11</v>
       </c>
       <c r="D10" s="9"/>
-      <c r="E10" s="22" t="s">
+      <c r="E10" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="F10" s="23" t="s">
-        <v>14</v>
-      </c>
-      <c r="G10" s="21" t="s">
+      <c r="F10" s="24" t="s">
+        <v>14</v>
+      </c>
+      <c r="G10" s="22" t="s">
         <v>15</v>
       </c>
-      <c r="H10" s="20" t="s">
-        <v>14</v>
-      </c>
-      <c r="I10" s="29"/>
+      <c r="H10" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="I10" s="30"/>
     </row>
     <row r="11" ht="14" customHeight="1" spans="1:9">
       <c r="A11" s="12"/>
@@ -3388,19 +3399,19 @@
         <v>11</v>
       </c>
       <c r="D11" s="9"/>
-      <c r="E11" s="22" t="s">
+      <c r="E11" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="F11" s="23" t="s">
-        <v>14</v>
-      </c>
-      <c r="G11" s="21" t="s">
+      <c r="F11" s="24" t="s">
+        <v>14</v>
+      </c>
+      <c r="G11" s="22" t="s">
         <v>15</v>
       </c>
-      <c r="H11" s="20" t="s">
-        <v>14</v>
-      </c>
-      <c r="I11" s="29"/>
+      <c r="H11" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="I11" s="30"/>
     </row>
     <row r="12" ht="14" customHeight="1" spans="1:9">
       <c r="A12" s="13" t="s">
@@ -3413,19 +3424,19 @@
         <v>11</v>
       </c>
       <c r="D12" s="9"/>
-      <c r="E12" s="22" t="s">
+      <c r="E12" s="23" t="s">
         <v>29</v>
       </c>
-      <c r="F12" s="23" t="s">
-        <v>14</v>
-      </c>
-      <c r="G12" s="21" t="s">
+      <c r="F12" s="24" t="s">
+        <v>14</v>
+      </c>
+      <c r="G12" s="22" t="s">
         <v>15</v>
       </c>
-      <c r="H12" s="20" t="s">
-        <v>14</v>
-      </c>
-      <c r="I12" s="29"/>
+      <c r="H12" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="I12" s="30"/>
     </row>
     <row r="13" ht="14" customHeight="1" spans="1:9">
       <c r="A13" s="13"/>
@@ -3436,19 +3447,19 @@
         <v>11</v>
       </c>
       <c r="D13" s="9"/>
-      <c r="E13" s="22" t="s">
+      <c r="E13" s="23" t="s">
         <v>29</v>
       </c>
-      <c r="F13" s="23" t="s">
-        <v>14</v>
-      </c>
-      <c r="G13" s="21" t="s">
+      <c r="F13" s="24" t="s">
+        <v>14</v>
+      </c>
+      <c r="G13" s="22" t="s">
         <v>15</v>
       </c>
-      <c r="H13" s="20" t="s">
-        <v>14</v>
-      </c>
-      <c r="I13" s="29"/>
+      <c r="H13" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="I13" s="30"/>
     </row>
     <row r="14" ht="14" customHeight="1" spans="1:9">
       <c r="A14" s="13"/>
@@ -3459,19 +3470,19 @@
         <v>11</v>
       </c>
       <c r="D14" s="9"/>
-      <c r="E14" s="22" t="s">
+      <c r="E14" s="23" t="s">
         <v>29</v>
       </c>
-      <c r="F14" s="23" t="s">
-        <v>14</v>
-      </c>
-      <c r="G14" s="21" t="s">
+      <c r="F14" s="24" t="s">
+        <v>14</v>
+      </c>
+      <c r="G14" s="22" t="s">
         <v>15</v>
       </c>
-      <c r="H14" s="20" t="s">
-        <v>14</v>
-      </c>
-      <c r="I14" s="29"/>
+      <c r="H14" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="I14" s="30"/>
     </row>
     <row r="15" ht="14" customHeight="1" spans="1:9">
       <c r="A15" s="13" t="s">
@@ -3484,19 +3495,19 @@
         <v>11</v>
       </c>
       <c r="D15" s="9"/>
-      <c r="E15" s="22" t="s">
+      <c r="E15" s="23" t="s">
         <v>29</v>
       </c>
-      <c r="F15" s="23" t="s">
-        <v>14</v>
-      </c>
-      <c r="G15" s="21" t="s">
+      <c r="F15" s="24" t="s">
+        <v>14</v>
+      </c>
+      <c r="G15" s="22" t="s">
         <v>15</v>
       </c>
-      <c r="H15" s="20" t="s">
-        <v>14</v>
-      </c>
-      <c r="I15" s="29"/>
+      <c r="H15" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="I15" s="30"/>
     </row>
     <row r="16" ht="14" customHeight="1" spans="1:9">
       <c r="A16" s="13"/>
@@ -3507,19 +3518,19 @@
         <v>11</v>
       </c>
       <c r="D16" s="9"/>
-      <c r="E16" s="22" t="s">
+      <c r="E16" s="23" t="s">
         <v>29</v>
       </c>
-      <c r="F16" s="23" t="s">
-        <v>14</v>
-      </c>
-      <c r="G16" s="21" t="s">
+      <c r="F16" s="24" t="s">
+        <v>14</v>
+      </c>
+      <c r="G16" s="22" t="s">
         <v>15</v>
       </c>
-      <c r="H16" s="20" t="s">
-        <v>14</v>
-      </c>
-      <c r="I16" s="29"/>
+      <c r="H16" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="I16" s="30"/>
     </row>
     <row r="17" ht="14" customHeight="1" spans="1:9">
       <c r="A17" s="13"/>
@@ -3530,19 +3541,19 @@
         <v>11</v>
       </c>
       <c r="D17" s="9"/>
-      <c r="E17" s="22" t="s">
+      <c r="E17" s="23" t="s">
         <v>29</v>
       </c>
-      <c r="F17" s="23" t="s">
-        <v>14</v>
-      </c>
-      <c r="G17" s="21" t="s">
+      <c r="F17" s="24" t="s">
+        <v>14</v>
+      </c>
+      <c r="G17" s="22" t="s">
         <v>15</v>
       </c>
-      <c r="H17" s="20" t="s">
-        <v>14</v>
-      </c>
-      <c r="I17" s="29"/>
+      <c r="H17" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="I17" s="30"/>
     </row>
     <row r="18" ht="14" customHeight="1" spans="1:9">
       <c r="A18" s="6" t="s">
@@ -3557,19 +3568,19 @@
       <c r="D18" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="E18" s="22" t="s">
+      <c r="E18" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="F18" s="23" t="s">
-        <v>14</v>
-      </c>
-      <c r="G18" s="21" t="s">
+      <c r="F18" s="24" t="s">
+        <v>14</v>
+      </c>
+      <c r="G18" s="22" t="s">
         <v>15</v>
       </c>
-      <c r="H18" s="20" t="s">
-        <v>14</v>
-      </c>
-      <c r="I18" s="29"/>
+      <c r="H18" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="I18" s="30"/>
     </row>
     <row r="19" ht="14" customHeight="1" spans="1:9">
       <c r="A19" s="6"/>
@@ -3579,20 +3590,20 @@
       <c r="C19" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="D19" s="14"/>
-      <c r="E19" s="22" t="s">
+      <c r="D19" s="15"/>
+      <c r="E19" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="F19" s="23" t="s">
-        <v>14</v>
-      </c>
-      <c r="G19" s="21" t="s">
+      <c r="F19" s="24" t="s">
+        <v>14</v>
+      </c>
+      <c r="G19" s="22" t="s">
         <v>39</v>
       </c>
-      <c r="H19" s="20" t="s">
-        <v>14</v>
-      </c>
-      <c r="I19" s="29"/>
+      <c r="H19" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="I19" s="30"/>
     </row>
     <row r="20" ht="14" customHeight="1" spans="1:9">
       <c r="A20" s="6"/>
@@ -3602,20 +3613,20 @@
       <c r="C20" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="D20" s="14"/>
-      <c r="E20" s="22" t="s">
+      <c r="D20" s="15"/>
+      <c r="E20" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="F20" s="23" t="s">
-        <v>14</v>
-      </c>
-      <c r="G20" s="21" t="s">
+      <c r="F20" s="24" t="s">
+        <v>14</v>
+      </c>
+      <c r="G20" s="22" t="s">
         <v>39</v>
       </c>
-      <c r="H20" s="20" t="s">
-        <v>14</v>
-      </c>
-      <c r="I20" s="29"/>
+      <c r="H20" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="I20" s="30"/>
     </row>
     <row r="21" ht="14" customHeight="1" spans="1:9">
       <c r="A21" s="6"/>
@@ -3625,20 +3636,20 @@
       <c r="C21" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="D21" s="14"/>
-      <c r="E21" s="22" t="s">
+      <c r="D21" s="15"/>
+      <c r="E21" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="F21" s="23" t="s">
-        <v>14</v>
-      </c>
-      <c r="G21" s="21" t="s">
+      <c r="F21" s="24" t="s">
+        <v>14</v>
+      </c>
+      <c r="G21" s="22" t="s">
         <v>39</v>
       </c>
-      <c r="H21" s="20" t="s">
-        <v>14</v>
-      </c>
-      <c r="I21" s="29"/>
+      <c r="H21" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="I21" s="30"/>
     </row>
     <row r="22" ht="14" customHeight="1" spans="1:9">
       <c r="A22" s="6"/>
@@ -3648,20 +3659,20 @@
       <c r="C22" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="D22" s="14"/>
-      <c r="E22" s="22" t="s">
+      <c r="D22" s="15"/>
+      <c r="E22" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="F22" s="23" t="s">
-        <v>14</v>
-      </c>
-      <c r="G22" s="21" t="s">
+      <c r="F22" s="24" t="s">
+        <v>14</v>
+      </c>
+      <c r="G22" s="22" t="s">
         <v>39</v>
       </c>
-      <c r="H22" s="20" t="s">
-        <v>14</v>
-      </c>
-      <c r="I22" s="29"/>
+      <c r="H22" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="I22" s="30"/>
     </row>
     <row r="23" ht="14" customHeight="1" spans="1:9">
       <c r="A23" s="6" t="s">
@@ -3673,20 +3684,20 @@
       <c r="C23" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="D23" s="14"/>
-      <c r="E23" s="22" t="s">
+      <c r="D23" s="15"/>
+      <c r="E23" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="F23" s="23" t="s">
-        <v>14</v>
-      </c>
-      <c r="G23" s="21" t="s">
+      <c r="F23" s="24" t="s">
+        <v>14</v>
+      </c>
+      <c r="G23" s="22" t="s">
         <v>15</v>
       </c>
-      <c r="H23" s="20" t="s">
-        <v>14</v>
-      </c>
-      <c r="I23" s="29"/>
+      <c r="H23" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="I23" s="30"/>
     </row>
     <row r="24" ht="14" customHeight="1" spans="1:9">
       <c r="A24" s="6"/>
@@ -3696,20 +3707,20 @@
       <c r="C24" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="D24" s="14"/>
-      <c r="E24" s="22" t="s">
+      <c r="D24" s="15"/>
+      <c r="E24" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="F24" s="23" t="s">
-        <v>14</v>
-      </c>
-      <c r="G24" s="21" t="s">
+      <c r="F24" s="24" t="s">
+        <v>14</v>
+      </c>
+      <c r="G24" s="22" t="s">
         <v>39</v>
       </c>
-      <c r="H24" s="20" t="s">
-        <v>14</v>
-      </c>
-      <c r="I24" s="29"/>
+      <c r="H24" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="I24" s="30"/>
     </row>
     <row r="25" ht="14" customHeight="1" spans="1:9">
       <c r="A25" s="6"/>
@@ -3719,20 +3730,20 @@
       <c r="C25" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="D25" s="14"/>
-      <c r="E25" s="22" t="s">
+      <c r="D25" s="15"/>
+      <c r="E25" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="F25" s="23" t="s">
-        <v>14</v>
-      </c>
-      <c r="G25" s="21" t="s">
+      <c r="F25" s="24" t="s">
+        <v>14</v>
+      </c>
+      <c r="G25" s="22" t="s">
         <v>39</v>
       </c>
-      <c r="H25" s="20" t="s">
-        <v>14</v>
-      </c>
-      <c r="I25" s="29"/>
+      <c r="H25" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="I25" s="30"/>
     </row>
     <row r="26" ht="14" customHeight="1" spans="1:9">
       <c r="A26" s="6"/>
@@ -3742,20 +3753,20 @@
       <c r="C26" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="D26" s="14"/>
-      <c r="E26" s="22" t="s">
+      <c r="D26" s="15"/>
+      <c r="E26" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="F26" s="23" t="s">
-        <v>14</v>
-      </c>
-      <c r="G26" s="21" t="s">
+      <c r="F26" s="24" t="s">
+        <v>14</v>
+      </c>
+      <c r="G26" s="22" t="s">
         <v>39</v>
       </c>
-      <c r="H26" s="20" t="s">
-        <v>14</v>
-      </c>
-      <c r="I26" s="29"/>
+      <c r="H26" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="I26" s="30"/>
     </row>
     <row r="27" ht="14" customHeight="1" spans="1:9">
       <c r="A27" s="6"/>
@@ -3765,23 +3776,23 @@
       <c r="C27" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="D27" s="14"/>
-      <c r="E27" s="22" t="s">
+      <c r="D27" s="15"/>
+      <c r="E27" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="F27" s="23" t="s">
-        <v>14</v>
-      </c>
-      <c r="G27" s="21" t="s">
+      <c r="F27" s="24" t="s">
+        <v>14</v>
+      </c>
+      <c r="G27" s="22" t="s">
         <v>39</v>
       </c>
-      <c r="H27" s="20" t="s">
-        <v>14</v>
-      </c>
-      <c r="I27" s="29"/>
+      <c r="H27" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="I27" s="30"/>
     </row>
     <row r="28" ht="14" customHeight="1" spans="1:9">
-      <c r="A28" s="15" t="s">
+      <c r="A28" s="16" t="s">
         <v>46</v>
       </c>
       <c r="B28" s="10" t="s">
@@ -3790,367 +3801,367 @@
       <c r="C28" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="D28" s="16" t="s">
+      <c r="D28" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="E28" s="22" t="s">
+      <c r="E28" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="F28" s="23" t="s">
-        <v>14</v>
-      </c>
-      <c r="G28" s="21" t="s">
+      <c r="F28" s="24" t="s">
+        <v>14</v>
+      </c>
+      <c r="G28" s="22" t="s">
         <v>15</v>
       </c>
-      <c r="H28" s="20" t="s">
-        <v>14</v>
-      </c>
-      <c r="I28" s="29"/>
+      <c r="H28" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="I28" s="30"/>
     </row>
     <row r="29" ht="14" customHeight="1" spans="1:9">
-      <c r="A29" s="15"/>
+      <c r="A29" s="16"/>
       <c r="B29" s="10" t="s">
         <v>48</v>
       </c>
       <c r="C29" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="D29" s="16"/>
-      <c r="E29" s="22" t="s">
+      <c r="D29" s="17"/>
+      <c r="E29" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="F29" s="23" t="s">
-        <v>14</v>
-      </c>
-      <c r="G29" s="21" t="s">
+      <c r="F29" s="24" t="s">
+        <v>14</v>
+      </c>
+      <c r="G29" s="22" t="s">
         <v>15</v>
       </c>
-      <c r="H29" s="20" t="s">
-        <v>14</v>
-      </c>
-      <c r="I29" s="29"/>
+      <c r="H29" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="I29" s="30"/>
     </row>
     <row r="30" ht="14" customHeight="1" spans="1:9">
-      <c r="A30" s="15"/>
+      <c r="A30" s="16"/>
       <c r="B30" s="10" t="s">
         <v>49</v>
       </c>
       <c r="C30" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="D30" s="16"/>
-      <c r="E30" s="22" t="s">
+      <c r="D30" s="17"/>
+      <c r="E30" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="F30" s="23" t="s">
-        <v>14</v>
-      </c>
-      <c r="G30" s="21" t="s">
+      <c r="F30" s="24" t="s">
+        <v>14</v>
+      </c>
+      <c r="G30" s="22" t="s">
         <v>15</v>
       </c>
-      <c r="H30" s="20" t="s">
-        <v>14</v>
-      </c>
-      <c r="I30" s="29"/>
+      <c r="H30" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="I30" s="30"/>
     </row>
     <row r="31" ht="14" customHeight="1" spans="1:9">
-      <c r="A31" s="15"/>
+      <c r="A31" s="16"/>
       <c r="B31" s="10" t="s">
         <v>50</v>
       </c>
       <c r="C31" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="D31" s="16"/>
-      <c r="E31" s="22" t="s">
+      <c r="D31" s="17"/>
+      <c r="E31" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="F31" s="23" t="s">
-        <v>14</v>
-      </c>
-      <c r="G31" s="21" t="s">
+      <c r="F31" s="24" t="s">
+        <v>14</v>
+      </c>
+      <c r="G31" s="22" t="s">
         <v>15</v>
       </c>
-      <c r="H31" s="20" t="s">
-        <v>14</v>
-      </c>
-      <c r="I31" s="29"/>
+      <c r="H31" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="I31" s="30"/>
     </row>
     <row r="32" ht="14" customHeight="1" spans="1:9">
-      <c r="A32" s="15"/>
+      <c r="A32" s="16"/>
       <c r="B32" s="10" t="s">
         <v>51</v>
       </c>
       <c r="C32" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="D32" s="16"/>
-      <c r="E32" s="22" t="s">
+      <c r="D32" s="17"/>
+      <c r="E32" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="F32" s="23" t="s">
-        <v>14</v>
-      </c>
-      <c r="G32" s="21" t="s">
+      <c r="F32" s="24" t="s">
+        <v>14</v>
+      </c>
+      <c r="G32" s="22" t="s">
         <v>15</v>
       </c>
-      <c r="H32" s="20" t="s">
-        <v>14</v>
-      </c>
-      <c r="I32" s="29"/>
+      <c r="H32" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="I32" s="30"/>
     </row>
     <row r="33" ht="14" customHeight="1" spans="1:9">
-      <c r="A33" s="15"/>
+      <c r="A33" s="16"/>
       <c r="B33" s="10" t="s">
         <v>52</v>
       </c>
       <c r="C33" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="D33" s="16"/>
-      <c r="E33" s="22" t="s">
+      <c r="D33" s="17"/>
+      <c r="E33" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="F33" s="23" t="s">
-        <v>14</v>
-      </c>
-      <c r="G33" s="21" t="s">
+      <c r="F33" s="24" t="s">
+        <v>14</v>
+      </c>
+      <c r="G33" s="22" t="s">
         <v>15</v>
       </c>
-      <c r="H33" s="20" t="s">
-        <v>14</v>
-      </c>
-      <c r="I33" s="29"/>
+      <c r="H33" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="I33" s="30"/>
     </row>
     <row r="34" ht="14" customHeight="1" spans="1:9">
-      <c r="A34" s="15"/>
+      <c r="A34" s="16"/>
       <c r="B34" s="10" t="s">
         <v>53</v>
       </c>
       <c r="C34" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="D34" s="16"/>
-      <c r="E34" s="22" t="s">
+      <c r="D34" s="17"/>
+      <c r="E34" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="F34" s="23" t="s">
-        <v>14</v>
-      </c>
-      <c r="G34" s="21" t="s">
+      <c r="F34" s="24" t="s">
+        <v>14</v>
+      </c>
+      <c r="G34" s="22" t="s">
         <v>15</v>
       </c>
-      <c r="H34" s="20" t="s">
-        <v>14</v>
-      </c>
-      <c r="I34" s="29"/>
+      <c r="H34" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="I34" s="30"/>
     </row>
     <row r="35" ht="14" customHeight="1" spans="1:9">
-      <c r="A35" s="15"/>
+      <c r="A35" s="16"/>
       <c r="B35" s="10" t="s">
         <v>54</v>
       </c>
       <c r="C35" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="D35" s="16"/>
-      <c r="E35" s="22" t="s">
+      <c r="D35" s="17"/>
+      <c r="E35" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="F35" s="23" t="s">
-        <v>14</v>
-      </c>
-      <c r="G35" s="21" t="s">
+      <c r="F35" s="24" t="s">
+        <v>14</v>
+      </c>
+      <c r="G35" s="22" t="s">
         <v>15</v>
       </c>
-      <c r="H35" s="20" t="s">
-        <v>14</v>
-      </c>
-      <c r="I35" s="29"/>
+      <c r="H35" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="I35" s="30"/>
     </row>
     <row r="36" ht="14" customHeight="1" spans="1:9">
-      <c r="A36" s="15"/>
+      <c r="A36" s="16"/>
       <c r="B36" s="10" t="s">
         <v>55</v>
       </c>
       <c r="C36" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="D36" s="16"/>
-      <c r="E36" s="22" t="s">
+      <c r="D36" s="17"/>
+      <c r="E36" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="F36" s="23" t="s">
-        <v>14</v>
-      </c>
-      <c r="G36" s="21" t="s">
+      <c r="F36" s="24" t="s">
+        <v>14</v>
+      </c>
+      <c r="G36" s="22" t="s">
         <v>15</v>
       </c>
-      <c r="H36" s="20" t="s">
-        <v>14</v>
-      </c>
-      <c r="I36" s="29"/>
+      <c r="H36" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="I36" s="30"/>
     </row>
     <row r="37" ht="14" customHeight="1" spans="1:9">
-      <c r="A37" s="15"/>
+      <c r="A37" s="16"/>
       <c r="B37" s="10" t="s">
         <v>56</v>
       </c>
       <c r="C37" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="D37" s="16"/>
-      <c r="E37" s="22" t="s">
+      <c r="D37" s="17"/>
+      <c r="E37" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="F37" s="23" t="s">
-        <v>14</v>
-      </c>
-      <c r="G37" s="21" t="s">
+      <c r="F37" s="24" t="s">
+        <v>14</v>
+      </c>
+      <c r="G37" s="22" t="s">
         <v>15</v>
       </c>
-      <c r="H37" s="20" t="s">
-        <v>14</v>
-      </c>
-      <c r="I37" s="29"/>
+      <c r="H37" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="I37" s="30"/>
     </row>
     <row r="38" ht="14" customHeight="1" spans="1:9">
-      <c r="A38" s="15"/>
+      <c r="A38" s="16"/>
       <c r="B38" s="10" t="s">
         <v>57</v>
       </c>
       <c r="C38" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="D38" s="16"/>
-      <c r="E38" s="22" t="s">
+      <c r="D38" s="17"/>
+      <c r="E38" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="F38" s="23" t="s">
-        <v>14</v>
-      </c>
-      <c r="G38" s="21" t="s">
+      <c r="F38" s="24" t="s">
+        <v>14</v>
+      </c>
+      <c r="G38" s="22" t="s">
         <v>15</v>
       </c>
-      <c r="H38" s="20" t="s">
-        <v>14</v>
-      </c>
-      <c r="I38" s="29"/>
+      <c r="H38" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="I38" s="30"/>
     </row>
     <row r="39" ht="14" customHeight="1" spans="1:9">
-      <c r="A39" s="15"/>
+      <c r="A39" s="16"/>
       <c r="B39" s="10" t="s">
         <v>58</v>
       </c>
       <c r="C39" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="D39" s="16"/>
-      <c r="E39" s="22" t="s">
+      <c r="D39" s="17"/>
+      <c r="E39" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="F39" s="23" t="s">
-        <v>14</v>
-      </c>
-      <c r="G39" s="21" t="s">
+      <c r="F39" s="24" t="s">
+        <v>14</v>
+      </c>
+      <c r="G39" s="22" t="s">
         <v>15</v>
       </c>
-      <c r="H39" s="20" t="s">
-        <v>14</v>
-      </c>
-      <c r="I39" s="29"/>
+      <c r="H39" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="I39" s="30"/>
     </row>
     <row r="40" ht="14" customHeight="1" spans="1:9">
-      <c r="A40" s="15"/>
+      <c r="A40" s="16"/>
       <c r="B40" s="10" t="s">
         <v>59</v>
       </c>
       <c r="C40" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="D40" s="16"/>
-      <c r="E40" s="22" t="s">
+      <c r="D40" s="17"/>
+      <c r="E40" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="F40" s="23" t="s">
-        <v>14</v>
-      </c>
-      <c r="G40" s="21" t="s">
+      <c r="F40" s="24" t="s">
+        <v>14</v>
+      </c>
+      <c r="G40" s="22" t="s">
         <v>15</v>
       </c>
-      <c r="H40" s="20" t="s">
-        <v>14</v>
-      </c>
-      <c r="I40" s="29"/>
+      <c r="H40" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="I40" s="30"/>
     </row>
     <row r="41" ht="14" customHeight="1" spans="1:9">
-      <c r="A41" s="15"/>
+      <c r="A41" s="16"/>
       <c r="B41" s="10" t="s">
         <v>60</v>
       </c>
       <c r="C41" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="D41" s="16"/>
-      <c r="E41" s="22" t="s">
+      <c r="D41" s="17"/>
+      <c r="E41" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="F41" s="23" t="s">
-        <v>14</v>
-      </c>
-      <c r="G41" s="21" t="s">
+      <c r="F41" s="24" t="s">
+        <v>14</v>
+      </c>
+      <c r="G41" s="22" t="s">
         <v>15</v>
       </c>
-      <c r="H41" s="20" t="s">
-        <v>14</v>
-      </c>
-      <c r="I41" s="29"/>
+      <c r="H41" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="I41" s="30"/>
     </row>
     <row r="42" ht="14" customHeight="1" spans="1:9">
-      <c r="A42" s="15"/>
+      <c r="A42" s="16"/>
       <c r="B42" s="10" t="s">
         <v>61</v>
       </c>
       <c r="C42" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="D42" s="16"/>
-      <c r="E42" s="22" t="s">
+      <c r="D42" s="17"/>
+      <c r="E42" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="F42" s="23" t="s">
-        <v>14</v>
-      </c>
-      <c r="G42" s="21" t="s">
+      <c r="F42" s="24" t="s">
+        <v>14</v>
+      </c>
+      <c r="G42" s="22" t="s">
         <v>15</v>
       </c>
-      <c r="H42" s="20" t="s">
-        <v>14</v>
-      </c>
-      <c r="I42" s="29"/>
+      <c r="H42" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="I42" s="30"/>
     </row>
     <row r="43" ht="14" customHeight="1" spans="1:9">
-      <c r="A43" s="15"/>
-      <c r="B43" s="17" t="s">
+      <c r="A43" s="16"/>
+      <c r="B43" s="18" t="s">
         <v>62</v>
       </c>
-      <c r="C43" s="18" t="s">
+      <c r="C43" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="D43" s="16"/>
-      <c r="E43" s="24" t="s">
+      <c r="D43" s="17"/>
+      <c r="E43" s="25" t="s">
         <v>13</v>
       </c>
-      <c r="F43" s="25" t="s">
-        <v>14</v>
-      </c>
-      <c r="G43" s="21" t="s">
+      <c r="F43" s="26" t="s">
+        <v>14</v>
+      </c>
+      <c r="G43" s="22" t="s">
         <v>15</v>
       </c>
-      <c r="H43" s="20" t="s">
-        <v>14</v>
-      </c>
-      <c r="I43" s="30"/>
+      <c r="H43" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="I43" s="31"/>
     </row>
     <row r="45" spans="1:1">
       <c r="A45">
